--- a/pred_ohlcv/54/2019-10-19 FX ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 FX ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -428,6 +433,9 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -452,6 +460,9 @@
         <v>110.85</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -504,6 +518,9 @@
         <v>110.6833333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -530,6 +547,9 @@
         <v>110.6333333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -556,6 +576,9 @@
         <v>110.5666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,6 +605,9 @@
         <v>110.4666666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,6 +634,9 @@
         <v>110.4333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,6 +663,9 @@
         <v>110.3833333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,6 +692,9 @@
         <v>110.3333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,6 +721,9 @@
         <v>110.2833333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,6 +750,9 @@
         <v>110.2666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,6 +779,9 @@
         <v>110.25</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -764,6 +808,9 @@
         <v>110.2166666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,6 +837,9 @@
         <v>110.15</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,6 +866,9 @@
         <v>110.1166666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,6 +895,9 @@
         <v>110.0833333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -868,6 +924,9 @@
         <v>110.0333333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -894,6 +953,9 @@
         <v>110</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -920,6 +982,9 @@
         <v>109.9666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -946,6 +1011,9 @@
         <v>109.9666666666667</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,6 +1040,9 @@
         <v>109.9</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -998,6 +1069,9 @@
         <v>109.8833333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1024,6 +1098,9 @@
         <v>109.9</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,6 +1127,9 @@
         <v>109.8833333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,6 +1156,9 @@
         <v>109.8666666666667</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,6 +1185,9 @@
         <v>109.85</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1128,6 +1214,9 @@
         <v>109.8</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,6 +1243,9 @@
         <v>109.7666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1180,6 +1272,9 @@
         <v>109.7333333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1208,6 +1303,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1232,6 +1330,9 @@
         <v>109.6166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1258,6 +1359,9 @@
         <v>109.5833333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,6 +1388,9 @@
         <v>109.5166666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1310,6 +1417,9 @@
         <v>109.5</v>
       </c>
       <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1336,6 +1446,9 @@
         <v>109.4</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1364,6 +1477,9 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1388,6 +1504,9 @@
         <v>109.2833333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1416,6 +1535,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1440,6 +1562,9 @@
         <v>109.1</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1466,6 +1591,9 @@
         <v>109.0166666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1492,6 +1620,9 @@
         <v>108.95</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1520,6 +1651,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1546,6 +1680,9 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1570,6 +1707,9 @@
         <v>108.7</v>
       </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1596,553 +1736,10 @@
         <v>108.6666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>109</v>
-      </c>
-      <c r="C48" t="n">
-        <v>109</v>
-      </c>
-      <c r="D48" t="n">
-        <v>109</v>
-      </c>
-      <c r="E48" t="n">
-        <v>109</v>
-      </c>
-      <c r="F48" t="n">
-        <v>147.8582</v>
-      </c>
-      <c r="G48" t="n">
-        <v>108.6833333333333</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>109</v>
-      </c>
-      <c r="C49" t="n">
-        <v>109</v>
-      </c>
-      <c r="D49" t="n">
-        <v>109</v>
-      </c>
-      <c r="E49" t="n">
-        <v>109</v>
-      </c>
-      <c r="F49" t="n">
-        <v>91.7431</v>
-      </c>
-      <c r="G49" t="n">
-        <v>108.65</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>109</v>
-      </c>
-      <c r="C50" t="n">
-        <v>109</v>
-      </c>
-      <c r="D50" t="n">
-        <v>109</v>
-      </c>
-      <c r="E50" t="n">
-        <v>109</v>
-      </c>
-      <c r="F50" t="n">
-        <v>17.8715</v>
-      </c>
-      <c r="G50" t="n">
-        <v>108.6166666666667</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>108</v>
-      </c>
-      <c r="C51" t="n">
-        <v>107</v>
-      </c>
-      <c r="D51" t="n">
-        <v>108</v>
-      </c>
-      <c r="E51" t="n">
-        <v>107</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1346.4669</v>
-      </c>
-      <c r="G51" t="n">
-        <v>108.55</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>108</v>
-      </c>
-      <c r="C52" t="n">
-        <v>108</v>
-      </c>
-      <c r="D52" t="n">
-        <v>108</v>
-      </c>
-      <c r="E52" t="n">
-        <v>108</v>
-      </c>
-      <c r="F52" t="n">
-        <v>18</v>
-      </c>
-      <c r="G52" t="n">
-        <v>108.5166666666667</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>109</v>
-      </c>
-      <c r="C53" t="n">
-        <v>109</v>
-      </c>
-      <c r="D53" t="n">
-        <v>109</v>
-      </c>
-      <c r="E53" t="n">
-        <v>109</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>108.5333333333333</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>109</v>
-      </c>
-      <c r="C54" t="n">
-        <v>109</v>
-      </c>
-      <c r="D54" t="n">
-        <v>109</v>
-      </c>
-      <c r="E54" t="n">
-        <v>109</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1131</v>
-      </c>
-      <c r="G54" t="n">
-        <v>108.5833333333333</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>108</v>
-      </c>
-      <c r="C55" t="n">
-        <v>108</v>
-      </c>
-      <c r="D55" t="n">
-        <v>108</v>
-      </c>
-      <c r="E55" t="n">
-        <v>108</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>108.5666666666667</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>108</v>
-      </c>
-      <c r="C56" t="n">
-        <v>108</v>
-      </c>
-      <c r="D56" t="n">
-        <v>108</v>
-      </c>
-      <c r="E56" t="n">
-        <v>108</v>
-      </c>
-      <c r="F56" t="n">
-        <v>166.3148</v>
-      </c>
-      <c r="G56" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>108</v>
-      </c>
-      <c r="C57" t="n">
-        <v>109</v>
-      </c>
-      <c r="D57" t="n">
-        <v>109</v>
-      </c>
-      <c r="E57" t="n">
-        <v>108</v>
-      </c>
-      <c r="F57" t="n">
-        <v>23.8623</v>
-      </c>
-      <c r="G57" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>109</v>
-      </c>
-      <c r="C58" t="n">
-        <v>109</v>
-      </c>
-      <c r="D58" t="n">
-        <v>109</v>
-      </c>
-      <c r="E58" t="n">
-        <v>109</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>108.65</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>109</v>
-      </c>
-      <c r="C59" t="n">
-        <v>109</v>
-      </c>
-      <c r="D59" t="n">
-        <v>109</v>
-      </c>
-      <c r="E59" t="n">
-        <v>109</v>
-      </c>
-      <c r="F59" t="n">
-        <v>113.376</v>
-      </c>
-      <c r="G59" t="n">
-        <v>108.65</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>109</v>
-      </c>
-      <c r="C60" t="n">
-        <v>110</v>
-      </c>
-      <c r="D60" t="n">
-        <v>110</v>
-      </c>
-      <c r="E60" t="n">
-        <v>109</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3707.6407</v>
-      </c>
-      <c r="G60" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>109</v>
-      </c>
-      <c r="C61" t="n">
-        <v>109</v>
-      </c>
-      <c r="D61" t="n">
-        <v>109</v>
-      </c>
-      <c r="E61" t="n">
-        <v>109</v>
-      </c>
-      <c r="F61" t="n">
-        <v>888</v>
-      </c>
-      <c r="G61" t="n">
-        <v>108.7166666666667</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>109</v>
-      </c>
-      <c r="C62" t="n">
-        <v>110</v>
-      </c>
-      <c r="D62" t="n">
-        <v>110</v>
-      </c>
-      <c r="E62" t="n">
-        <v>109</v>
-      </c>
-      <c r="F62" t="n">
-        <v>161.389</v>
-      </c>
-      <c r="G62" t="n">
-        <v>108.7666666666667</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>110</v>
-      </c>
-      <c r="C63" t="n">
-        <v>110</v>
-      </c>
-      <c r="D63" t="n">
-        <v>110</v>
-      </c>
-      <c r="E63" t="n">
-        <v>110</v>
-      </c>
-      <c r="F63" t="n">
-        <v>9.3283</v>
-      </c>
-      <c r="G63" t="n">
-        <v>108.8166666666667</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>110</v>
-      </c>
-      <c r="C64" t="n">
-        <v>110</v>
-      </c>
-      <c r="D64" t="n">
-        <v>110</v>
-      </c>
-      <c r="E64" t="n">
-        <v>110</v>
-      </c>
-      <c r="F64" t="n">
-        <v>63.20909090909091</v>
-      </c>
-      <c r="G64" t="n">
-        <v>108.85</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>109</v>
-      </c>
-      <c r="C65" t="n">
-        <v>109</v>
-      </c>
-      <c r="D65" t="n">
-        <v>109</v>
-      </c>
-      <c r="E65" t="n">
-        <v>109</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1004.1359</v>
-      </c>
-      <c r="G65" t="n">
-        <v>108.8666666666667</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>109</v>
-      </c>
-      <c r="C66" t="n">
-        <v>109</v>
-      </c>
-      <c r="D66" t="n">
-        <v>109</v>
-      </c>
-      <c r="E66" t="n">
-        <v>109</v>
-      </c>
-      <c r="F66" t="n">
-        <v>40</v>
-      </c>
-      <c r="G66" t="n">
-        <v>108.8666666666667</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>111</v>
-      </c>
-      <c r="C67" t="n">
-        <v>111</v>
-      </c>
-      <c r="D67" t="n">
-        <v>111</v>
-      </c>
-      <c r="E67" t="n">
-        <v>111</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>108.9166666666667</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>111</v>
-      </c>
-      <c r="C68" t="n">
-        <v>111</v>
-      </c>
-      <c r="D68" t="n">
-        <v>111</v>
-      </c>
-      <c r="E68" t="n">
-        <v>111</v>
-      </c>
-      <c r="F68" t="n">
-        <v>20</v>
-      </c>
-      <c r="G68" t="n">
-        <v>108.9833333333333</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
